--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Tgfb1-Tgfbr3.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Tgfb1-Tgfbr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>78.2200418873781</v>
+        <v>88.72291666666666</v>
       </c>
       <c r="H2">
-        <v>78.2200418873781</v>
+        <v>266.16875</v>
       </c>
       <c r="I2">
-        <v>0.7492556934372211</v>
+        <v>0.7675060578750151</v>
       </c>
       <c r="J2">
-        <v>0.7492556934372211</v>
+        <v>0.7675060578750152</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>69.6548282658682</v>
+        <v>19.86261233333333</v>
       </c>
       <c r="N2">
-        <v>69.6548282658682</v>
+        <v>59.587837</v>
       </c>
       <c r="O2">
-        <v>0.7913823010656408</v>
+        <v>0.1710751304955294</v>
       </c>
       <c r="P2">
-        <v>0.7913823010656408</v>
+        <v>0.1710751304955294</v>
       </c>
       <c r="Q2">
-        <v>5448.403584614339</v>
+        <v>1762.268898832639</v>
       </c>
       <c r="R2">
-        <v>5448.403584614339</v>
+        <v>15860.42008949375</v>
       </c>
       <c r="S2">
-        <v>0.5929476947588803</v>
+        <v>0.1313011990070776</v>
       </c>
       <c r="T2">
-        <v>0.5929476947588803</v>
+        <v>0.1313011990070776</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>78.2200418873781</v>
+        <v>88.72291666666666</v>
       </c>
       <c r="H3">
-        <v>78.2200418873781</v>
+        <v>266.16875</v>
       </c>
       <c r="I3">
-        <v>0.7492556934372211</v>
+        <v>0.7675060578750151</v>
       </c>
       <c r="J3">
-        <v>0.7492556934372211</v>
+        <v>0.7675060578750152</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>18.3618334311069</v>
+        <v>69.67747766666666</v>
       </c>
       <c r="N3">
-        <v>18.3618334311069</v>
+        <v>209.032433</v>
       </c>
       <c r="O3">
-        <v>0.2086176989343592</v>
+        <v>0.6001266794307873</v>
       </c>
       <c r="P3">
-        <v>0.2086176989343592</v>
+        <v>0.6001266794307873</v>
       </c>
       <c r="Q3">
-        <v>1436.263380110241</v>
+        <v>6181.989044563194</v>
       </c>
       <c r="R3">
-        <v>1436.263380110241</v>
+        <v>55637.90140106874</v>
       </c>
       <c r="S3">
-        <v>0.1563079986783407</v>
+        <v>0.4606008619555465</v>
       </c>
       <c r="T3">
-        <v>0.1563079986783407</v>
+        <v>0.4606008619555466</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.7865645371817</v>
+        <v>88.72291666666666</v>
       </c>
       <c r="H4">
-        <v>17.7865645371817</v>
+        <v>266.16875</v>
       </c>
       <c r="I4">
-        <v>0.170374298256703</v>
+        <v>0.7675060578750151</v>
       </c>
       <c r="J4">
-        <v>0.170374298256703</v>
+        <v>0.7675060578750152</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>69.6548282658682</v>
+        <v>26.564526</v>
       </c>
       <c r="N4">
-        <v>69.6548282658682</v>
+        <v>79.693578</v>
       </c>
       <c r="O4">
-        <v>0.7913823010656408</v>
+        <v>0.2287981900736832</v>
       </c>
       <c r="P4">
-        <v>0.7913823010656408</v>
+        <v>0.2287981900736832</v>
       </c>
       <c r="Q4">
-        <v>1238.920098277173</v>
+        <v>2356.8822265875</v>
       </c>
       <c r="R4">
-        <v>1238.920098277173</v>
+        <v>21211.9400392875</v>
       </c>
       <c r="S4">
-        <v>0.1348312041968334</v>
+        <v>0.175603996912391</v>
       </c>
       <c r="T4">
-        <v>0.1348312041968334</v>
+        <v>0.1756039969123911</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.7865645371817</v>
+        <v>17.91585</v>
       </c>
       <c r="H5">
-        <v>17.7865645371817</v>
+        <v>53.74755</v>
       </c>
       <c r="I5">
-        <v>0.170374298256703</v>
+        <v>0.1549827702197958</v>
       </c>
       <c r="J5">
-        <v>0.170374298256703</v>
+        <v>0.1549827702197958</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>18.3618334311069</v>
+        <v>19.86261233333333</v>
       </c>
       <c r="N5">
-        <v>18.3618334311069</v>
+        <v>59.587837</v>
       </c>
       <c r="O5">
-        <v>0.2086176989343592</v>
+        <v>0.1710751304955294</v>
       </c>
       <c r="P5">
-        <v>0.2086176989343592</v>
+        <v>0.1710751304955294</v>
       </c>
       <c r="Q5">
-        <v>326.5939353433633</v>
+        <v>355.8555831721501</v>
       </c>
       <c r="R5">
-        <v>326.5939353433633</v>
+        <v>3202.70024854935</v>
       </c>
       <c r="S5">
-        <v>0.03554309405986959</v>
+        <v>0.02651369763991022</v>
       </c>
       <c r="T5">
-        <v>0.03554309405986959</v>
+        <v>0.02651369763991023</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.390387248644799</v>
+        <v>17.91585</v>
       </c>
       <c r="H6">
-        <v>8.390387248644799</v>
+        <v>53.74755</v>
       </c>
       <c r="I6">
-        <v>0.08037000830607582</v>
+        <v>0.1549827702197958</v>
       </c>
       <c r="J6">
-        <v>0.08037000830607582</v>
+        <v>0.1549827702197958</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>69.6548282658682</v>
+        <v>69.67747766666666</v>
       </c>
       <c r="N6">
-        <v>69.6548282658682</v>
+        <v>209.032433</v>
       </c>
       <c r="O6">
-        <v>0.7913823010656408</v>
+        <v>0.6001266794307873</v>
       </c>
       <c r="P6">
-        <v>0.7913823010656408</v>
+        <v>0.6001266794307873</v>
       </c>
       <c r="Q6">
-        <v>584.430982888484</v>
+        <v>1248.33123825435</v>
       </c>
       <c r="R6">
-        <v>584.430982888484</v>
+        <v>11234.98114428915</v>
       </c>
       <c r="S6">
-        <v>0.06360340210992695</v>
+        <v>0.09300929526099078</v>
       </c>
       <c r="T6">
-        <v>0.06360340210992695</v>
+        <v>0.09300929526099079</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.390387248644799</v>
+        <v>17.91585</v>
       </c>
       <c r="H7">
-        <v>8.390387248644799</v>
+        <v>53.74755</v>
       </c>
       <c r="I7">
-        <v>0.08037000830607582</v>
+        <v>0.1549827702197958</v>
       </c>
       <c r="J7">
-        <v>0.08037000830607582</v>
+        <v>0.1549827702197958</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.3618334311069</v>
+        <v>26.564526</v>
       </c>
       <c r="N7">
-        <v>18.3618334311069</v>
+        <v>79.693578</v>
       </c>
       <c r="O7">
-        <v>0.2086176989343592</v>
+        <v>0.2287981900736832</v>
       </c>
       <c r="P7">
-        <v>0.2086176989343592</v>
+        <v>0.2287981900736832</v>
       </c>
       <c r="Q7">
-        <v>154.0628930820991</v>
+        <v>475.9260631371001</v>
       </c>
       <c r="R7">
-        <v>154.0628930820991</v>
+        <v>4283.3345682339</v>
       </c>
       <c r="S7">
-        <v>0.01676660619614887</v>
+        <v>0.03545977731889481</v>
       </c>
       <c r="T7">
-        <v>0.01676660619614887</v>
+        <v>0.03545977731889483</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>8.960212333333333</v>
+      </c>
+      <c r="H8">
+        <v>26.880637</v>
+      </c>
+      <c r="I8">
+        <v>0.077511171905189</v>
+      </c>
+      <c r="J8">
+        <v>0.07751117190518901</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>19.86261233333333</v>
+      </c>
+      <c r="N8">
+        <v>59.587837</v>
+      </c>
+      <c r="O8">
+        <v>0.1710751304955294</v>
+      </c>
+      <c r="P8">
+        <v>0.1710751304955294</v>
+      </c>
+      <c r="Q8">
+        <v>177.9732240013521</v>
+      </c>
+      <c r="R8">
+        <v>1601.759016012169</v>
+      </c>
+      <c r="S8">
+        <v>0.01326023384854162</v>
+      </c>
+      <c r="T8">
+        <v>0.01326023384854163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>8.960212333333333</v>
+      </c>
+      <c r="H9">
+        <v>26.880637</v>
+      </c>
+      <c r="I9">
+        <v>0.077511171905189</v>
+      </c>
+      <c r="J9">
+        <v>0.07751117190518901</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>69.67747766666666</v>
+      </c>
+      <c r="N9">
+        <v>209.032433</v>
+      </c>
+      <c r="O9">
+        <v>0.6001266794307873</v>
+      </c>
+      <c r="P9">
+        <v>0.6001266794307873</v>
+      </c>
+      <c r="Q9">
+        <v>624.3249947444244</v>
+      </c>
+      <c r="R9">
+        <v>5618.92495269982</v>
+      </c>
+      <c r="S9">
+        <v>0.04651652221425</v>
+      </c>
+      <c r="T9">
+        <v>0.04651652221425002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>8.960212333333333</v>
+      </c>
+      <c r="H10">
+        <v>26.880637</v>
+      </c>
+      <c r="I10">
+        <v>0.077511171905189</v>
+      </c>
+      <c r="J10">
+        <v>0.07751117190518901</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>26.564526</v>
+      </c>
+      <c r="N10">
+        <v>79.693578</v>
+      </c>
+      <c r="O10">
+        <v>0.2287981900736832</v>
+      </c>
+      <c r="P10">
+        <v>0.2287981900736832</v>
+      </c>
+      <c r="Q10">
+        <v>238.023793494354</v>
+      </c>
+      <c r="R10">
+        <v>2142.214141449186</v>
+      </c>
+      <c r="S10">
+        <v>0.01773441584239737</v>
+      </c>
+      <c r="T10">
+        <v>0.01773441584239737</v>
       </c>
     </row>
   </sheetData>
